--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieron\Documents\Business Analytics\Semester 2\Analytics Research and Implementation\Programming Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieron\Documents\Business Analytics\Semester 2\Analytics Research and Implementation\Programming Assignment\Airplane_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>.csv file</t>
   </si>
@@ -110,13 +110,16 @@
     <t>test whether the database file is in the right format</t>
   </si>
   <si>
-    <t>Clean and test</t>
-  </si>
-  <si>
     <t>update total passengers (not number of bookings) that have been refused</t>
   </si>
   <si>
     <t>update how many passengers are seated away from any other member of their party</t>
+  </si>
+  <si>
+    <t>Clean and test (optional)</t>
+  </si>
+  <si>
+    <t>(update database one booking at a time, starting at the top)</t>
   </si>
 </sst>
 </file>
@@ -196,10 +199,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,7 +758,7 @@
   <dimension ref="B2:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,12 +770,12 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
@@ -791,10 +794,10 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -809,10 +812,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -827,10 +830,10 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -845,10 +848,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -875,21 +878,24 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="Q9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -897,17 +903,18 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="Q10" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
@@ -925,12 +932,9 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="Q11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="6"/>
@@ -941,10 +945,9 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -954,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -973,6 +976,12 @@
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="Q15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
@@ -980,6 +989,10 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
@@ -1009,19 +1022,20 @@
       <c r="E21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C16:E18"/>
-    <mergeCell ref="C19:E21"/>
-    <mergeCell ref="G11:J12"/>
-    <mergeCell ref="L11:O12"/>
-    <mergeCell ref="Q11:T12"/>
+  <mergeCells count="13">
     <mergeCell ref="Q13:T14"/>
+    <mergeCell ref="Q9:T10"/>
+    <mergeCell ref="Q15:T16"/>
     <mergeCell ref="B2:E6"/>
     <mergeCell ref="G2:J6"/>
     <mergeCell ref="L2:O6"/>
     <mergeCell ref="Q2:T6"/>
     <mergeCell ref="L9:O10"/>
     <mergeCell ref="G9:J10"/>
+    <mergeCell ref="C16:E18"/>
+    <mergeCell ref="C19:E21"/>
+    <mergeCell ref="G11:J12"/>
+    <mergeCell ref="L11:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -12,8 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Workflow" sheetId="5" r:id="rId1"/>
+    <sheet name="Import Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Clean and Test" sheetId="2" r:id="rId3"/>
+    <sheet name="Solve Seating" sheetId="3" r:id="rId4"/>
+    <sheet name="Output Data" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,21 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>.csv file</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>test can they be seated together</t>
-  </si>
-  <si>
-    <t>booking name</t>
-  </si>
-  <si>
-    <t>integer number of passengers</t>
-  </si>
-  <si>
-    <t>database file</t>
   </si>
   <si>
     <t>seating plane for aircraft</t>
@@ -120,6 +111,51 @@
   </si>
   <si>
     <t>(update database one booking at a time, starting at the top)</t>
+  </si>
+  <si>
+    <t>can be opened using sqlite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains 3 tables: </t>
+  </si>
+  <si>
+    <t>first column = firstName lastName</t>
+  </si>
+  <si>
+    <t>2nd col = integer, number of passengers in party</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>rows_cols</t>
+  </si>
+  <si>
+    <t>rows = int</t>
+  </si>
+  <si>
+    <t>cols = letters, string</t>
+  </si>
+  <si>
+    <t>how many rows and columns are in the airplane - stored as a 1*2 tuple</t>
+  </si>
+  <si>
+    <t>a 1*2 tuple - both ints</t>
+  </si>
+  <si>
+    <t>seating</t>
+  </si>
+  <si>
+    <t>x*3 tuple - row number, column letter, and booking name (an empty string)</t>
+  </si>
+  <si>
+    <t>.csv bookings file</t>
+  </si>
+  <si>
+    <t>.db airline seating database file</t>
+  </si>
+  <si>
+    <t>can be opened using numpy or pandas</t>
   </si>
 </sst>
 </file>
@@ -183,26 +219,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,49 +274,45 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>294256</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="6" name="Right Arrow 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="447675" y="95250"/>
-          <a:ext cx="2762250" cy="5238750"/>
+        <a:xfrm rot="1240819">
+          <a:off x="2730850" y="1059712"/>
+          <a:ext cx="3897531" cy="276225"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -275,7 +320,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -284,48 +341,44 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="8" name="Right Arrow 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="104775"/>
-          <a:ext cx="2762250" cy="5238750"/>
+        <a:xfrm flipH="1">
+          <a:off x="3076575" y="2286000"/>
+          <a:ext cx="2352675" cy="276225"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -333,7 +386,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -341,118 +406,96 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="95250"/>
-          <a:ext cx="2762250" cy="5238750"/>
+          <a:off x="3419475" y="495300"/>
+          <a:ext cx="2124075" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9648825" y="104775"/>
-          <a:ext cx="2762250" cy="5238750"/>
+          <a:off x="7381876" y="876300"/>
+          <a:ext cx="9524" cy="1123950"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -755,302 +798,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T21"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="L2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="Q11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="Q12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="Q13:T14"/>
-    <mergeCell ref="Q9:T10"/>
-    <mergeCell ref="Q15:T16"/>
-    <mergeCell ref="B2:E6"/>
-    <mergeCell ref="G2:J6"/>
-    <mergeCell ref="L2:O6"/>
-    <mergeCell ref="Q2:T6"/>
-    <mergeCell ref="L9:O10"/>
-    <mergeCell ref="G9:J10"/>
-    <mergeCell ref="C16:E18"/>
-    <mergeCell ref="C19:E21"/>
-    <mergeCell ref="G11:J12"/>
-    <mergeCell ref="L11:O12"/>
+  <mergeCells count="4">
+    <mergeCell ref="K12:N14"/>
+    <mergeCell ref="B12:E14"/>
+    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="K2:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>